--- a/database/class1.xlsx
+++ b/database/class1.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23時58分</t>
+          <t>09時22分</t>
         </is>
       </c>
       <c r="F8" t="n">
